--- a/medicine/Enfance/Erik_Amdrup/Erik_Amdrup.xlsx
+++ b/medicine/Enfance/Erik_Amdrup/Erik_Amdrup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Amdrup, né le 21 février 1923 à Tønder au Danemark et mort le 22 février 1998, est un chirurgien et un romancier danois, auteur de roman policier.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 1965, Erik Amdrup est médecin adjoint à l'hôpital municipal de Copenhague, de 1971 à 1988, consultant au service de gastroentérologie chirurgicale de l'hôpital municipal d'Aarhus et professeur de chirurgie à l'Université d'Aarhus.
-En 1979, il publie son premier roman, Hilsen fra Hans. Avec Renters rente paru en 1989, il est lauréat du prix Palle-Rosenkrantz 1990. Danmarks Radio a acheté les droits de ce roman pour une adaptation en 1996 en une mini-série télévisée homonyme[1].
+En 1979, il publie son premier roman, Hilsen fra Hans. Avec Renters rente paru en 1989, il est lauréat du prix Palle-Rosenkrantz 1990. Danmarks Radio a acheté les droits de ce roman pour une adaptation en 1996 en une mini-série télévisée homonyme.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Hilsen fra Hans (1979)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hilsen fra Hans (1979)
 Den næste (1981)
 Hvem førte kniven? (1983)
 Muldvarpen (1983)
@@ -567,16 +586,7 @@
 Fæstningen (1995)
 Autonom (1996)
 Den andens brød (1997)
-I skygge (1998)
-Littérature de jeunesse
-Mistænkt (1985)
-Stemmen og ansigtet (1987)
-Littérature professionnelle
-Dumpingsyndromet og andre måltidsbestemte gener optrædende hos ventricelresecerede patienter – faglitteratur (1960)
-Kirurgisk gastroenterologi. En klinisk indføring (1978)
-Studies on peptic ulcer disease in department of surgery 1, Kommunehospitalet Copenhagen (1987)
-Autre ouvrage
-Som jeg så det. En kirurgs tilbageblik (1998)</t>
+I skygge (1998)</t>
         </is>
       </c>
     </row>
@@ -601,13 +611,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mistænkt (1985)
+Stemmen og ansigtet (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature professionnelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dumpingsyndromet og andre måltidsbestemte gener optrædende hos ventricelresecerede patienter – faglitteratur (1960)
+Kirurgisk gastroenterologi. En klinisk indføring (1978)
+Studies on peptic ulcer disease in department of surgery 1, Kommunehospitalet Copenhagen (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Som jeg så det. En kirurgs tilbageblik (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erik_Amdrup</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Palle-Rosenkrantz 1990 pour Renters rente[2]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Palle-Rosenkrantz 1990 pour Renters rente</t>
         </is>
       </c>
     </row>
